--- a/classification/droptc/sentence/neo-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9981825351715088</v>
+        <v>0.9721187353134155</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998348951339722</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986919760704041</v>
+        <v>0.8325985074043274</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997908473014832</v>
+        <v>0.941053569316864</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999198913574219</v>
+        <v>0.999852180480957</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987183809280396</v>
+        <v>0.9995099306106567</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9973230957984924</v>
+        <v>0.9995013475418091</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999752044677734</v>
+        <v>0.9810914993286133</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996556043624878</v>
+        <v>0.9995013475418091</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6783910989761353</v>
+        <v>0.9804797172546387</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9995946288108826</v>
+        <v>0.9997227787971497</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9961264729499817</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999941349029541</v>
+        <v>0.9822177290916443</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980138540267944</v>
+        <v>0.9520596265792847</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9992331266403198</v>
+        <v>0.9925363063812256</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999854564666748</v>
+        <v>0.9980254173278809</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99992835521698</v>
+        <v>0.9581630229949951</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998737573623657</v>
+        <v>0.9998026490211487</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9955125451087952</v>
+        <v>0.981719434261322</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996030926704407</v>
+        <v>0.9996834993362427</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.823372483253479</v>
+        <v>0.989260196685791</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998338222503662</v>
+        <v>0.999674916267395</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997408986091614</v>
+        <v>0.9997242093086243</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999843955039978</v>
+        <v>0.3653699457645416</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9987183809280396</v>
+        <v>0.9764763116836548</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9990639090538025</v>
+        <v>0.9970102310180664</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9998123049736023</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9997856020927429</v>
+        <v>0.9977142810821533</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9998019337654114</v>
+        <v>0.9997161030769348</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999865293502808</v>
+        <v>0.9998657703399658</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9998584985733032</v>
+        <v>0.6368920207023621</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.999286949634552</v>
+        <v>0.994256317615509</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9926828742027283</v>
+        <v>0.9871509075164795</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9918091893196106</v>
+        <v>0.9980373978614807</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9990142583847046</v>
+        <v>0.9996476173400879</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9982718229293823</v>
+        <v>0.9997735619544983</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9998470544815063</v>
+        <v>0.9998418092727661</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7215671539306641</v>
+        <v>0.843139111995697</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9949012994766235</v>
+        <v>0.705696165561676</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9994365572929382</v>
+        <v>0.9999344348907471</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9997856020927429</v>
+        <v>0.852291464805603</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9996930360794067</v>
+        <v>0.980401337146759</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9987207055091858</v>
+        <v>0.9991428852081299</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999114274978638</v>
+        <v>0.9971681237220764</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9983863830566406</v>
+        <v>0.9447016716003418</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9996931552886963</v>
+        <v>0.4860382974147797</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8114420175552368</v>
+        <v>0.9700447916984558</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999222755432129</v>
+        <v>0.9994303584098816</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9968900084495544</v>
+        <v>0.9971824884414673</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9999738931655884</v>
+        <v>0.6565729975700378</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5946395993232727</v>
+        <v>0.9917299151420593</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7412711381912231</v>
+        <v>0.9971824884414673</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9973480701446533</v>
+        <v>0.9989038705825806</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9897117614746094</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9998729228973389</v>
+        <v>0.9998601675033569</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9996651411056519</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6050463914871216</v>
+        <v>0.9953842759132385</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9997581839561462</v>
+        <v>0.9986483454704285</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9843080639839172</v>
+        <v>0.9934187531471252</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9897996187210083</v>
       </c>
     </row>
     <row r="62">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8366937637329102</v>
+        <v>0.9998281002044678</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9999732971191406</v>
+        <v>0.9995338916778564</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.998897910118103</v>
+        <v>0.7463610172271729</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9278233051300049</v>
+        <v>0.9986230134963989</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9995027780532837</v>
+        <v>0.9986230134963989</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9975975155830383</v>
+        <v>0.998717188835144</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999692440032959</v>
+        <v>0.9986230134963989</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.996545135974884</v>
+        <v>0.9909639358520508</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9997226595878601</v>
+        <v>0.9996809959411621</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9997714161872864</v>
+        <v>0.9990014433860779</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9996507167816162</v>
+        <v>0.9993988275527954</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9998338222503662</v>
+        <v>0.9997335076332092</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9527197480201721</v>
+        <v>0.9630612134933472</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9995027780532837</v>
+        <v>0.9999741315841675</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9997335076332092</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9986823201179504</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9992426633834839</v>
+        <v>0.9997335076332092</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9979854822158813</v>
+        <v>0.99998939037323</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7085632085800171</v>
+        <v>0.9990754127502441</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9990278482437134</v>
+        <v>0.9561218619346619</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9991164803504944</v>
+        <v>0.9990754127502441</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.999972939491272</v>
+        <v>0.9650623798370361</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6737416982650757</v>
+        <v>0.9650623798370361</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9995027780532837</v>
+        <v>0.9995125532150269</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9520429968833923</v>
+        <v>0.997572124004364</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999222755432129</v>
+        <v>0.9293131828308105</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9973447918891907</v>
+        <v>0.9989629983901978</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9992541670799255</v>
+        <v>0.9949236512184143</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999823570251465</v>
+        <v>0.9998631477355957</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9990983009338379</v>
+        <v>0.9998835325241089</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9979854822158813</v>
+        <v>0.9997941851615906</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9998134970664978</v>
+        <v>0.9998088479042053</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9997228980064392</v>
+        <v>0.9997932314872742</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.996870219707489</v>
+        <v>0.9997958540916443</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9996280670166016</v>
+        <v>0.9277750253677368</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9989818930625916</v>
+        <v>0.986524224281311</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9998356103897095</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8681543469429016</v>
+        <v>0.7689492702484131</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8205450177192688</v>
+        <v>0.9846952557563782</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9989768266677856</v>
+        <v>0.9917237162590027</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9999744892120361</v>
+        <v>0.3819200694561005</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.7151411771774292</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9998834133148193</v>
+        <v>0.9975333213806152</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9999579191207886</v>
+        <v>0.9994280934333801</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7238655090332031</v>
+        <v>0.9992017149925232</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9991523027420044</v>
+        <v>0.9983578324317932</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9981246590614319</v>
+        <v>0.9953212141990662</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9981405735015869</v>
+        <v>0.9978308081626892</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9945611357688904</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9989941716194153</v>
+        <v>0.9938316345214844</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9983851909637451</v>
+        <v>0.9962981343269348</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9998670816421509</v>
+        <v>0.9993282556533813</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9999817609786987</v>
+        <v>0.999096155166626</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9996556043624878</v>
+        <v>0.991973876953125</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6763792037963867</v>
+        <v>0.949460506439209</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9988642930984497</v>
+        <v>0.9945855736732483</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.999985933303833</v>
+        <v>0.6281533241271973</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9997301697731018</v>
+        <v>0.9729265570640564</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9999568462371826</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9977194666862488</v>
+        <v>0.9973430037498474</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8711841702461243</v>
+        <v>0.998745322227478</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9998169541358948</v>
+        <v>0.9973430037498474</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9968262910842896</v>
+        <v>0.998745322227478</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9999866485595703</v>
+        <v>0.9973430037498474</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9999619722366333</v>
+        <v>0.9998710155487061</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9706283807754517</v>
+        <v>0.6812209486961365</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998467743396759</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9996706247329712</v>
+        <v>0.9587130546569824</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9997863173484802</v>
+        <v>0.8053091168403625</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9996440410614014</v>
+        <v>0.9996415376663208</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9500720500946045</v>
+        <v>0.5081207156181335</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9999210834503174</v>
+        <v>0.9957525730133057</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9997856020927429</v>
+        <v>0.9352296590805054</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997060894966125</v>
+        <v>0.9993065595626831</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9996706247329712</v>
+        <v>0.9301772117614746</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.99992835521698</v>
+        <v>0.9997387528419495</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9969239830970764</v>
+        <v>0.9875463843345642</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9997075200080872</v>
+        <v>0.9986365437507629</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5889396071434021</v>
+        <v>0.9999020099639893</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.999494194984436</v>
+        <v>0.8684971332550049</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9997715353965759</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9995332956314087</v>
+        <v>0.9863302111625671</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9995104074478149</v>
+        <v>0.9998601675033569</v>
       </c>
     </row>
     <row r="145">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9943501353263855</v>
+        <v>0.9863302111625671</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.573499321937561</v>
+        <v>0.9967817068099976</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9998664855957031</v>
+        <v>0.9909639358520508</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9975939393043518</v>
+        <v>0.9959748387336731</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9997900128364563</v>
+        <v>0.9881260395050049</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9999511241912842</v>
+        <v>0.8443389534950256</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.999625563621521</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9990278482437134</v>
+        <v>0.918856143951416</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9999818801879883</v>
+        <v>0.9913384914398193</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9913083910942078</v>
+        <v>0.996488094329834</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9980997443199158</v>
+        <v>0.9999614953994751</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9857358336448669</v>
+        <v>0.9972666501998901</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9999743700027466</v>
+        <v>0.999822199344635</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7694764137268066</v>
+        <v>0.9990967512130737</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9999781847000122</v>
+        <v>0.9999473094940186</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9996573925018311</v>
+        <v>0.5796340107917786</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9999692440032959</v>
+        <v>0.9959954023361206</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5571439862251282</v>
+        <v>0.8823293447494507</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.8058292269706726</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996514320373535</v>
+        <v>0.9944589138031006</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9998338222503662</v>
+        <v>0.9999077320098877</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9991164803504944</v>
+        <v>0.9958335161209106</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9998192191123962</v>
+        <v>0.9971611499786377</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9990278482437134</v>
+        <v>0.9880720376968384</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9999427795410156</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9765517711639404</v>
+        <v>0.9971611499786377</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999566078186035</v>
+        <v>0.9893981218338013</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9990142583847046</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9987181425094604</v>
+        <v>0.999401330947876</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9956910014152527</v>
+        <v>0.9994766116142273</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9999715089797974</v>
+        <v>0.999401330947876</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9989776611328125</v>
+        <v>0.999401330947876</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9991342425346375</v>
+        <v>0.9994766116142273</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9996914863586426</v>
+        <v>0.9990731477737427</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9988561868667603</v>
+        <v>0.9997323155403137</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9837350845336914</v>
+        <v>0.9995170831680298</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9997918009757996</v>
+        <v>0.9989257454872131</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9994766116142273</v>
+        <v>0.9999737739562988</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9982689619064331</v>
+        <v>0.9924201369285583</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9487001895904541</v>
+        <v>0.9998998641967773</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9985203146934509</v>
+        <v>0.999634861946106</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9992004036903381</v>
+        <v>0.999626636505127</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9990983009338379</v>
+        <v>0.9963000416755676</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9995872378349304</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9969691634178162</v>
+        <v>0.9996453523635864</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9998584985733032</v>
+        <v>0.9997929930686951</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9482929706573486</v>
+        <v>0.8623831868171692</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9998987913131714</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9845848679542542</v>
+        <v>0.9998482465744019</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.998556911945343</v>
+        <v>0.9862359166145325</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9988210797309875</v>
+        <v>0.8550673127174377</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9967074394226074</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9987881779670715</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9997134804725647</v>
+        <v>0.9986475110054016</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9920794367790222</v>
+        <v>0.9929854273796082</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9999066591262817</v>
+        <v>0.8691419959068298</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9996103644371033</v>
+        <v>0.9998929500579834</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9998857975006104</v>
+        <v>0.9999085664749146</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9999171495437622</v>
+        <v>0.9978506565093994</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.9921323657035828</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9999070167541504</v>
+        <v>0.6336888074874878</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9991494417190552</v>
+        <v>0.9998059868812561</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9999682903289795</v>
+        <v>0.9831628799438477</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9998241066932678</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9998656511306763</v>
+        <v>0.5337702631950378</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9736952781677246</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
   </sheetData>
